--- a/ejemplo_datos.xlsx
+++ b/ejemplo_datos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uah\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/568c465430beac93/Documentos/Informe-datos-FIS/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_75BEC7BE2D564637AC797E56603A168705F7331C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6888"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="rii_diabetes" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="rii_diabetes" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="C:\Users\uah\Downloads\rii_diabetes.csv" comma="1">
       <textFields count="12">
         <textField/>
@@ -151,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +203,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="rii_diabetes" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="rii_diabetes" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,24 +468,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I817"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B727" sqref="B727"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="F278" sqref="F278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -513,7 +514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.1924069407332198</v>
       </c>
@@ -542,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.7160068621848601</v>
       </c>
@@ -571,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.1064414349807299</v>
       </c>
@@ -600,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.3349722343978701</v>
       </c>
@@ -629,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.61123344405424</v>
       </c>
@@ -658,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.2933187402641799</v>
       </c>
@@ -687,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.9738777322304499</v>
       </c>
@@ -716,7 +717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.57932888424944</v>
       </c>
@@ -745,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.0606057644771498</v>
       </c>
@@ -774,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.88702214145874</v>
       </c>
@@ -803,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.8166606353305501</v>
       </c>
@@ -832,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.7789085463024801</v>
       </c>
@@ -861,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.8312522088857699</v>
       </c>
@@ -890,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.9837718355371601</v>
       </c>
@@ -919,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.7436837970197401</v>
       </c>
@@ -948,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.1233605526962398</v>
       </c>
@@ -977,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.1233605526962398</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2.1576075670543902</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.78068834459961</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1.95033275186496</v>
       </c>
@@ -1093,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1.7160068621848601</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1.77535428465627</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1.6870813093472099</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1.59999419321736</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1.95814970635881</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1.56049019583267</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2.1836548288634998</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2.19899403725988</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1.9193757443089099</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2.0077205021801499</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1.96010883546646</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1.9386657912365199</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1.8983783087408601</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1.8294218719978601</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2.0482791467233801</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2.0441866822585602</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1.57932888424944</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2.1924069407332198</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1.90980281784711</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1.78961408207101</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2.1340039417586598</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.95228406010834</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1.9309266167394601</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1.9270686227859399</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1.9483833939545001</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.8112188202285699</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1.99371553324308</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2.00370907394118</v>
       </c>
@@ -1905,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1.96010883546646</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2.0564886714136299</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1.79678687442027</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2.3186845023275202</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1.4918246976412699</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1.7074482422542101</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1.5174025129350801</v>
       </c>
@@ -2108,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1.4290358698538801</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2.1022327621864498</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1.5714519485776499</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1.9659979912897301</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2.0380633118599101</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1.7023335733667799</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1.75768921436982</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2.1814722654982002</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1.6290548499725701</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2.0959355144943599</v>
       </c>
@@ -2398,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1.9059870292719201</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1.82394183055406</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1.8645131995195201</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1.9002776365552301</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1.88702214145874</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1.72116261253012</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1.8719861883312401</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2.16409010870612</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1.76473405150846</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1.6241750088442299</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2.3773822799620699</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1.60480138297626</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1.97782943808353</v>
       </c>
@@ -2775,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2.2750453812359899</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2.1170000166126699</v>
       </c>
@@ -2833,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2.22109429475144</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1.8330843770260501</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1.7436837970197401</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1.8889101074258501</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1.8832518687053299</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1.98575659958933</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1.73846058436507</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1.9270686227859399</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2.15114444388532</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1.83491837825085</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1.82759336453197</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1.86264961826593</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1.77357981775294</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2.0441866822585602</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1.8112188202285699</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1.6686251101396701</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2.0137527074704802</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2.20560092474773</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2.3233265117943001</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2.0813151967047498</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1.83491837825085</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1.73846058436507</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1.7401999144695399</v>
       </c>
@@ -3500,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1.9021788646473901</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2.2144409968040701</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1.96010883546646</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1.98575659958933</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1.88702214145874</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1.6569855204608499</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1.95814970635881</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2.2727714729983699</v>
       </c>
@@ -3732,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1.8832518687053299</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2.1233605526962398</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2.1489943746552198</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2.0709345938546</v>
       </c>
@@ -3848,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1.94643598442759</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1.59839499875464</v>
       </c>
@@ -3906,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1.84227275070293</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1.6753129773975901</v>
       </c>
@@ -3964,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2.01778424307718</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2.2956132060461298</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2.0875685175862002</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>2.0544332106438898</v>
       </c>
@@ -4080,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1.9117135758847501</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1.76473405150846</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1.94254700273675</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1.697234225493</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1.7524240484244999</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2.0959355144943599</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2.0709345938546</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>2.0667968637762102</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1.9738777322304499</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1.8719861883312401</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1.7629701995299301</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1.84227275070293</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1.9174573279326601</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>2.1924069407332198</v>
       </c>
@@ -4486,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1.7160068621848601</v>
       </c>
@@ -4515,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>2.1064414349807299</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>2.3349722343978701</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1.61123344405424</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2.2933187402641799</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1.9738777322304499</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1.57932888424944</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>2.0606057644771498</v>
       </c>
@@ -4718,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1.88702214145874</v>
       </c>
@@ -4747,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1.8166606353305501</v>
       </c>
@@ -4776,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1.7789085463024801</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1.8312522088857699</v>
       </c>
@@ -4834,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1.9837718355371601</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1.7436837970197401</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>2.1233605526962398</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>2.1233605526962398</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>2.1576075670543902</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1.78068834459961</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1.95033275186496</v>
       </c>
@@ -5037,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1.7160068621848601</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1.77535428465627</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1.6870813093472099</v>
       </c>
@@ -5124,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1.59999419321736</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1.95814970635881</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1.56049019583267</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>2.1836548288634998</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2.19899403725988</v>
       </c>
@@ -5269,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1.9193757443089099</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>2.0077205021801499</v>
       </c>
@@ -5327,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1.96010883546646</v>
       </c>
@@ -5356,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1.9386657912365199</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1.8983783087408601</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1.8294218719978601</v>
       </c>
@@ -5443,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2.0482791467233801</v>
       </c>
@@ -5472,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>2.0441866822585602</v>
       </c>
@@ -5501,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1.57932888424944</v>
       </c>
@@ -5530,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2.1924069407332198</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1.90980281784711</v>
       </c>
@@ -5588,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1.78961408207101</v>
       </c>
@@ -5617,7 +5618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>2.1340039417586598</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1.95228406010834</v>
       </c>
@@ -5675,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1.9309266167394601</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1.9270686227859399</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1.9483833939545001</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1.8112188202285699</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1.99371553324308</v>
       </c>
@@ -5820,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>2.00370907394118</v>
       </c>
@@ -5849,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1.96010883546646</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>2.0564886714136299</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1.79678687442027</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2.3186845023275202</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1.4918246976412699</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1.7074482422542101</v>
       </c>
@@ -6023,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1.5174025129350801</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1.4290358698538801</v>
       </c>
@@ -6081,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2.1022327621864498</v>
       </c>
@@ -6110,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1.5714519485776499</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1.9659979912897301</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2.0380633118599101</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1.7023335733667799</v>
       </c>
@@ -6226,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1.75768921436982</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>2.1814722654982002</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1.6290548499725701</v>
       </c>
@@ -6313,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>2.0959355144943599</v>
       </c>
@@ -6342,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1.9059870292719201</v>
       </c>
@@ -6371,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>1.82394183055406</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1.8645131995195201</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1.9002776365552301</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1.88702214145874</v>
       </c>
@@ -6487,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1.72116261253012</v>
       </c>
@@ -6516,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1.8719861883312401</v>
       </c>
@@ -6545,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>2.16409010870612</v>
       </c>
@@ -6574,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1.76473405150846</v>
       </c>
@@ -6603,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1.6241750088442299</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>2.3773822799620699</v>
       </c>
@@ -6661,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1.60480138297626</v>
       </c>
@@ -6690,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1.97782943808353</v>
       </c>
@@ -6719,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2.2750453812359899</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2.1170000166126699</v>
       </c>
@@ -6777,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2.22109429475144</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1.8330843770260501</v>
       </c>
@@ -6835,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1.7436837970197401</v>
       </c>
@@ -6864,7 +6865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1.8889101074258501</v>
       </c>
@@ -6893,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1.8832518687053299</v>
       </c>
@@ -6922,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1.98575659958933</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1.73846058436507</v>
       </c>
@@ -6980,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1.9270686227859399</v>
       </c>
@@ -7009,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>2.15114444388532</v>
       </c>
@@ -7038,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1.83491837825085</v>
       </c>
@@ -7067,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1.82759336453197</v>
       </c>
@@ -7096,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1.86264961826593</v>
       </c>
@@ -7125,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1.77357981775294</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>2.0441866822585602</v>
       </c>
@@ -7183,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1.8112188202285699</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>1.6686251101396701</v>
       </c>
@@ -7241,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>2.0137527074704802</v>
       </c>
@@ -7270,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>2.20560092474773</v>
       </c>
@@ -7299,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>2.3233265117943001</v>
       </c>
@@ -7328,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>2.0813151967047498</v>
       </c>
@@ -7357,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1.83491837825085</v>
       </c>
@@ -7386,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1.73846058436507</v>
       </c>
@@ -7415,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1.7401999144695399</v>
       </c>
@@ -7444,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1.9021788646473901</v>
       </c>
@@ -7473,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>2.2144409968040701</v>
       </c>
@@ -7502,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1.96010883546646</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1.98575659958933</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1.88702214145874</v>
       </c>
@@ -7589,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1.6569855204608499</v>
       </c>
@@ -7618,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1.95814970635881</v>
       </c>
@@ -7647,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>2.2727714729983699</v>
       </c>
@@ -7676,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1.8832518687053299</v>
       </c>
@@ -7705,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>2.1233605526962398</v>
       </c>
@@ -7734,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>2.1489943746552198</v>
       </c>
@@ -7763,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>2.0709345938546</v>
       </c>
@@ -7792,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>1.94643598442759</v>
       </c>
@@ -7821,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1.59839499875464</v>
       </c>
@@ -7850,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1.84227275070293</v>
       </c>
@@ -7879,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1.6753129773975901</v>
       </c>
@@ -7908,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>2.01778424307718</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>2.2956132060461298</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>2.0875685175862002</v>
       </c>
@@ -7995,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>2.0544332106438898</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1.9117135758847501</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1.76473405150846</v>
       </c>
@@ -8082,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1.94254700273675</v>
       </c>
@@ -8111,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1.697234225493</v>
       </c>
@@ -8140,7 +8141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1.7524240484244999</v>
       </c>
@@ -8169,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>2.0959355144943599</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>2.0709345938546</v>
       </c>
@@ -8227,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>2.0667968637762102</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1.9738777322304499</v>
       </c>
@@ -8285,7 +8286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>1.8719861883312401</v>
       </c>
@@ -8314,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>1.7629701995299301</v>
       </c>
@@ -8343,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1.84227275070293</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1.9174573279326601</v>
       </c>
@@ -8401,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>2.1924069407332198</v>
       </c>
@@ -8430,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>1.7160068621848601</v>
       </c>
@@ -8459,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>2.1064414349807299</v>
       </c>
@@ -8488,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>2.3349722343978701</v>
       </c>
@@ -8517,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>1.61123344405424</v>
       </c>
@@ -8546,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>2.2933187402641799</v>
       </c>
@@ -8575,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>1.9738777322304499</v>
       </c>
@@ -8604,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1.57932888424944</v>
       </c>
@@ -8633,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>2.0606057644771498</v>
       </c>
@@ -8662,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>1.88702214145874</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>1.8166606353305501</v>
       </c>
@@ -8720,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>1.7789085463024801</v>
       </c>
@@ -8749,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>1.8312522088857699</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>1.9837718355371601</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1.7436837970197401</v>
       </c>
@@ -8836,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>2.1233605526962398</v>
       </c>
@@ -8865,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>2.1233605526962398</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>2.1576075670543902</v>
       </c>
@@ -8923,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>1.78068834459961</v>
       </c>
@@ -8952,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>1.95033275186496</v>
       </c>
@@ -8981,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>1.7160068621848601</v>
       </c>
@@ -9010,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>1.77535428465627</v>
       </c>
@@ -9039,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1.6870813093472099</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1.59999419321736</v>
       </c>
@@ -9097,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>1.95814970635881</v>
       </c>
@@ -9126,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>1.56049019583267</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>2.1836548288634998</v>
       </c>
@@ -9184,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>2.19899403725988</v>
       </c>
@@ -9213,7 +9214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>1.9193757443089099</v>
       </c>
@@ -9242,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>2.0077205021801499</v>
       </c>
@@ -9271,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>1.96010883546646</v>
       </c>
@@ -9300,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>1.9386657912365199</v>
       </c>
@@ -9329,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>1.8983783087408601</v>
       </c>
@@ -9358,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>1.8294218719978601</v>
       </c>
@@ -9387,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>2.0482791467233801</v>
       </c>
@@ -9416,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>2.0441866822585602</v>
       </c>
@@ -9445,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>1.57932888424944</v>
       </c>
@@ -9474,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>2.1924069407332198</v>
       </c>
@@ -9503,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>1.90980281784711</v>
       </c>
@@ -9532,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>1.78961408207101</v>
       </c>
@@ -9561,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>2.1340039417586598</v>
       </c>
@@ -9590,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>1.95228406010834</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>1.9309266167394601</v>
       </c>
@@ -9648,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>1.9270686227859399</v>
       </c>
@@ -9677,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>1.9483833939545001</v>
       </c>
@@ -9706,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>1.8112188202285699</v>
       </c>
@@ -9735,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>1.99371553324308</v>
       </c>
@@ -9764,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>2.00370907394118</v>
       </c>
@@ -9793,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>1.96010883546646</v>
       </c>
@@ -9822,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>2.0564886714136299</v>
       </c>
@@ -9851,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>1.79678687442027</v>
       </c>
@@ -9880,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>2.3186845023275202</v>
       </c>
@@ -9909,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1.4918246976412699</v>
       </c>
@@ -9938,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>1.7074482422542101</v>
       </c>
@@ -9967,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1.5174025129350801</v>
       </c>
@@ -9996,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>1.4290358698538801</v>
       </c>
@@ -10025,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>2.1022327621864498</v>
       </c>
@@ -10054,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>1.5714519485776499</v>
       </c>
@@ -10083,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>1.9659979912897301</v>
       </c>
@@ -10112,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>2.0380633118599101</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>1.7023335733667799</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>1.75768921436982</v>
       </c>
@@ -10199,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>2.1814722654982002</v>
       </c>
@@ -10228,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1.6290548499725701</v>
       </c>
@@ -10257,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>2.0959355144943599</v>
       </c>
@@ -10286,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>1.9059870292719201</v>
       </c>
@@ -10315,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>1.82394183055406</v>
       </c>
@@ -10344,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>1.8645131995195201</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>1.9002776365552301</v>
       </c>
@@ -10402,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>1.88702214145874</v>
       </c>
@@ -10431,7 +10432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>1.72116261253012</v>
       </c>
@@ -10460,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>1.8719861883312401</v>
       </c>
@@ -10489,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>2.16409010870612</v>
       </c>
@@ -10518,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>1.76473405150846</v>
       </c>
@@ -10547,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>1.6241750088442299</v>
       </c>
@@ -10576,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>2.3773822799620699</v>
       </c>
@@ -10605,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>1.60480138297626</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>1.97782943808353</v>
       </c>
@@ -10663,7 +10664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>2.2750453812359899</v>
       </c>
@@ -10692,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>2.1170000166126699</v>
       </c>
@@ -10721,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>2.22109429475144</v>
       </c>
@@ -10750,7 +10751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>1.8330843770260501</v>
       </c>
@@ -10779,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>1.7436837970197401</v>
       </c>
@@ -10808,7 +10809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>1.8889101074258501</v>
       </c>
@@ -10837,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>1.8832518687053299</v>
       </c>
@@ -10866,7 +10867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>1.98575659958933</v>
       </c>
@@ -10895,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>1.73846058436507</v>
       </c>
@@ -10924,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>1.9270686227859399</v>
       </c>
@@ -10953,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>2.15114444388532</v>
       </c>
@@ -10982,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>1.83491837825085</v>
       </c>
@@ -11011,7 +11012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>1.82759336453197</v>
       </c>
@@ -11040,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>1.86264961826593</v>
       </c>
@@ -11069,7 +11070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>1.77357981775294</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>2.0441866822585602</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>1.8112188202285699</v>
       </c>
@@ -11156,7 +11157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>1.6686251101396701</v>
       </c>
@@ -11185,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>2.0137527074704802</v>
       </c>
@@ -11214,7 +11215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>2.20560092474773</v>
       </c>
@@ -11243,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>2.3233265117943001</v>
       </c>
@@ -11272,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>2.0813151967047498</v>
       </c>
@@ -11301,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>1.83491837825085</v>
       </c>
@@ -11330,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>1.73846058436507</v>
       </c>
@@ -11359,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>1.7401999144695399</v>
       </c>
@@ -11388,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>1.9021788646473901</v>
       </c>
@@ -11417,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>2.2144409968040701</v>
       </c>
@@ -11446,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>1.96010883546646</v>
       </c>
@@ -11475,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>1.98575659958933</v>
       </c>
@@ -11504,7 +11505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>1.88702214145874</v>
       </c>
@@ -11533,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>1.6569855204608499</v>
       </c>
@@ -11562,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>1.95814970635881</v>
       </c>
@@ -11591,7 +11592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>2.2727714729983699</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>1.8832518687053299</v>
       </c>
@@ -11649,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>2.1233605526962398</v>
       </c>
@@ -11678,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>2.1489943746552198</v>
       </c>
@@ -11707,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>2.0709345938546</v>
       </c>
@@ -11736,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>1.94643598442759</v>
       </c>
@@ -11765,7 +11766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>1.59839499875464</v>
       </c>
@@ -11794,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>1.84227275070293</v>
       </c>
@@ -11823,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>1.6753129773975901</v>
       </c>
@@ -11852,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>2.01778424307718</v>
       </c>
@@ -11881,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>2.2956132060461298</v>
       </c>
@@ -11910,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>2.0875685175862002</v>
       </c>
@@ -11939,7 +11940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>2.0544332106438898</v>
       </c>
@@ -11968,7 +11969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>1.9117135758847501</v>
       </c>
@@ -11997,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>1.76473405150846</v>
       </c>
@@ -12026,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>1.94254700273675</v>
       </c>
@@ -12055,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>1.697234225493</v>
       </c>
@@ -12084,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>1.7524240484244999</v>
       </c>
@@ -12113,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>2.0959355144943599</v>
       </c>
@@ -12142,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>2.0709345938546</v>
       </c>
@@ -12171,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>2.0667968637762102</v>
       </c>
@@ -12200,7 +12201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>1.9738777322304499</v>
       </c>
@@ -12229,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>1.8719861883312401</v>
       </c>
@@ -12258,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>1.7629701995299301</v>
       </c>
@@ -12287,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>1.84227275070293</v>
       </c>
@@ -12316,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>1.9174573279326601</v>
       </c>
@@ -12345,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>2.1924069407332198</v>
       </c>
@@ -12374,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>1.7160068621848601</v>
       </c>
@@ -12403,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>2.1064414349807299</v>
       </c>
@@ -12432,7 +12433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>2.3349722343978701</v>
       </c>
@@ -12461,7 +12462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>1.61123344405424</v>
       </c>
@@ -12490,7 +12491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>2.2933187402641799</v>
       </c>
@@ -12519,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>1.9738777322304499</v>
       </c>
@@ -12548,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>1.57932888424944</v>
       </c>
@@ -12577,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>2.0606057644771498</v>
       </c>
@@ -12606,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>1.88702214145874</v>
       </c>
@@ -12635,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>1.8166606353305501</v>
       </c>
@@ -12664,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>1.7789085463024801</v>
       </c>
@@ -12693,7 +12694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>1.8312522088857699</v>
       </c>
@@ -12722,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>1.9837718355371601</v>
       </c>
@@ -12751,7 +12752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>1.7436837970197401</v>
       </c>
@@ -12780,7 +12781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>2.1233605526962398</v>
       </c>
@@ -12809,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>2.1233605526962398</v>
       </c>
@@ -12838,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>2.1576075670543902</v>
       </c>
@@ -12867,7 +12868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>1.78068834459961</v>
       </c>
@@ -12896,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>1.95033275186496</v>
       </c>
@@ -12925,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>1.7160068621848601</v>
       </c>
@@ -12954,7 +12955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>1.77535428465627</v>
       </c>
@@ -12983,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>1.6870813093472099</v>
       </c>
@@ -13012,7 +13013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>1.59999419321736</v>
       </c>
@@ -13041,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>1.95814970635881</v>
       </c>
@@ -13070,7 +13071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>1.56049019583267</v>
       </c>
@@ -13099,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>2.1836548288634998</v>
       </c>
@@ -13128,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>2.19899403725988</v>
       </c>
@@ -13157,7 +13158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>1.9193757443089099</v>
       </c>
@@ -13186,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>2.0077205021801499</v>
       </c>
@@ -13215,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>1.96010883546646</v>
       </c>
@@ -13244,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>1.9386657912365199</v>
       </c>
@@ -13273,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>1.8983783087408601</v>
       </c>
@@ -13302,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>1.8294218719978601</v>
       </c>
@@ -13331,7 +13332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>2.0482791467233801</v>
       </c>
@@ -13360,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>2.0441866822585602</v>
       </c>
@@ -13389,7 +13390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>1.57932888424944</v>
       </c>
@@ -13418,7 +13419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>2.1924069407332198</v>
       </c>
@@ -13447,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>1.90980281784711</v>
       </c>
@@ -13476,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>1.78961408207101</v>
       </c>
@@ -13505,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>2.1340039417586598</v>
       </c>
@@ -13534,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>1.95228406010834</v>
       </c>
@@ -13563,7 +13564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>1.9309266167394601</v>
       </c>
@@ -13592,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>1.9270686227859399</v>
       </c>
@@ -13621,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>1.9483833939545001</v>
       </c>
@@ -13650,7 +13651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>1.8112188202285699</v>
       </c>
@@ -13679,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>1.99371553324308</v>
       </c>
@@ -13708,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>2.00370907394118</v>
       </c>
@@ -13737,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>1.96010883546646</v>
       </c>
@@ -13766,7 +13767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>2.0564886714136299</v>
       </c>
@@ -13795,7 +13796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>1.79678687442027</v>
       </c>
@@ -13824,7 +13825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>2.3186845023275202</v>
       </c>
@@ -13853,7 +13854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>1.4918246976412699</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>1.7074482422542101</v>
       </c>
@@ -13911,7 +13912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>1.5174025129350801</v>
       </c>
@@ -13940,7 +13941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>1.4290358698538801</v>
       </c>
@@ -13969,7 +13970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>2.1022327621864498</v>
       </c>
@@ -13998,7 +13999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>1.5714519485776499</v>
       </c>
@@ -14027,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>1.9659979912897301</v>
       </c>
@@ -14056,7 +14057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>2.0380633118599101</v>
       </c>
@@ -14085,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>1.7023335733667799</v>
       </c>
@@ -14114,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>1.75768921436982</v>
       </c>
@@ -14143,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>2.1814722654982002</v>
       </c>
@@ -14172,7 +14173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>1.6290548499725701</v>
       </c>
@@ -14201,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>2.0959355144943599</v>
       </c>
@@ -14230,7 +14231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>1.9059870292719201</v>
       </c>
@@ -14259,7 +14260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>1.82394183055406</v>
       </c>
@@ -14288,7 +14289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>1.8645131995195201</v>
       </c>
@@ -14317,7 +14318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>1.9002776365552301</v>
       </c>
@@ -14346,7 +14347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>1.88702214145874</v>
       </c>
@@ -14375,7 +14376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>1.72116261253012</v>
       </c>
@@ -14404,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>1.8719861883312401</v>
       </c>
@@ -14433,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>2.16409010870612</v>
       </c>
@@ -14462,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>1.76473405150846</v>
       </c>
@@ -14491,7 +14492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>1.6241750088442299</v>
       </c>
@@ -14520,7 +14521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>2.3773822799620699</v>
       </c>
@@ -14549,7 +14550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>1.60480138297626</v>
       </c>
@@ -14578,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>1.97782943808353</v>
       </c>
@@ -14607,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>2.2750453812359899</v>
       </c>
@@ -14636,7 +14637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>2.1170000166126699</v>
       </c>
@@ -14665,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>2.22109429475144</v>
       </c>
@@ -14694,7 +14695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>1.8330843770260501</v>
       </c>
@@ -14723,7 +14724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>1.7436837970197401</v>
       </c>
@@ -14752,7 +14753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>1.8889101074258501</v>
       </c>
@@ -14781,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>1.8832518687053299</v>
       </c>
@@ -14810,7 +14811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>1.98575659958933</v>
       </c>
@@ -14839,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>1.73846058436507</v>
       </c>
@@ -14868,7 +14869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>1.9270686227859399</v>
       </c>
@@ -14897,7 +14898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>2.15114444388532</v>
       </c>
@@ -14926,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>1.83491837825085</v>
       </c>
@@ -14955,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>1.82759336453197</v>
       </c>
@@ -14984,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>1.86264961826593</v>
       </c>
@@ -15013,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A502">
         <v>1.77357981775294</v>
       </c>
@@ -15042,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A503">
         <v>2.0441866822585602</v>
       </c>
@@ -15071,7 +15072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A504">
         <v>1.8112188202285699</v>
       </c>
@@ -15100,7 +15101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A505">
         <v>1.6686251101396701</v>
       </c>
@@ -15129,7 +15130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A506">
         <v>2.0137527074704802</v>
       </c>
@@ -15158,7 +15159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A507">
         <v>2.20560092474773</v>
       </c>
@@ -15187,7 +15188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A508">
         <v>2.3233265117943001</v>
       </c>
@@ -15216,7 +15217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A509">
         <v>2.0813151967047498</v>
       </c>
@@ -15245,7 +15246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A510">
         <v>1.83491837825085</v>
       </c>
@@ -15274,7 +15275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A511">
         <v>1.73846058436507</v>
       </c>
@@ -15303,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A512">
         <v>1.7401999144695399</v>
       </c>
@@ -15332,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>1.9021788646473901</v>
       </c>
@@ -15361,7 +15362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>2.2144409968040701</v>
       </c>
@@ -15390,7 +15391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>1.96010883546646</v>
       </c>
@@ -15419,7 +15420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>1.98575659958933</v>
       </c>
@@ -15448,7 +15449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>1.88702214145874</v>
       </c>
@@ -15477,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>1.6569855204608499</v>
       </c>
@@ -15506,7 +15507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>1.95814970635881</v>
       </c>
@@ -15535,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>2.2727714729983699</v>
       </c>
@@ -15564,7 +15565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>1.8832518687053299</v>
       </c>
@@ -15593,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>2.1233605526962398</v>
       </c>
@@ -15622,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>2.1489943746552198</v>
       </c>
@@ -15651,7 +15652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>2.0709345938546</v>
       </c>
@@ -15680,7 +15681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>1.94643598442759</v>
       </c>
@@ -15709,7 +15710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>1.59839499875464</v>
       </c>
@@ -15738,7 +15739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>1.84227275070293</v>
       </c>
@@ -15767,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>1.6753129773975901</v>
       </c>
@@ -15796,7 +15797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>2.01778424307718</v>
       </c>
@@ -15825,7 +15826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>2.2956132060461298</v>
       </c>
@@ -15854,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>2.0875685175862002</v>
       </c>
@@ -15883,7 +15884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>2.0544332106438898</v>
       </c>
@@ -15912,7 +15913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>1.9117135758847501</v>
       </c>
@@ -15941,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>1.76473405150846</v>
       </c>
@@ -15970,7 +15971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>1.94254700273675</v>
       </c>
@@ -15999,7 +16000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>1.697234225493</v>
       </c>
@@ -16028,7 +16029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>1.7524240484244999</v>
       </c>
@@ -16057,7 +16058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>2.0959355144943599</v>
       </c>
@@ -16086,7 +16087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>2.0709345938546</v>
       </c>
@@ -16115,7 +16116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>2.0667968637762102</v>
       </c>
@@ -16144,7 +16145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>1.9738777322304499</v>
       </c>
@@ -16173,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>1.8719861883312401</v>
       </c>
@@ -16202,7 +16203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>1.7629701995299301</v>
       </c>
@@ -16231,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>1.84227275070293</v>
       </c>
@@ -16260,7 +16261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>1.9174573279326601</v>
       </c>
@@ -16289,7 +16290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>2.1924069407332198</v>
       </c>
@@ -16318,7 +16319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>1.7160068621848601</v>
       </c>
@@ -16347,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>2.1064414349807299</v>
       </c>
@@ -16376,7 +16377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>2.3349722343978701</v>
       </c>
@@ -16405,7 +16406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>1.61123344405424</v>
       </c>
@@ -16434,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>2.2933187402641799</v>
       </c>
@@ -16463,7 +16464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>1.9738777322304499</v>
       </c>
@@ -16492,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>1.57932888424944</v>
       </c>
@@ -16521,7 +16522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>2.0606057644771498</v>
       </c>
@@ -16550,7 +16551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>1.88702214145874</v>
       </c>
@@ -16579,7 +16580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>1.8166606353305501</v>
       </c>
@@ -16608,7 +16609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>1.7789085463024801</v>
       </c>
@@ -16637,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>1.8312522088857699</v>
       </c>
@@ -16666,7 +16667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>1.9837718355371601</v>
       </c>
@@ -16695,7 +16696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>1.7436837970197401</v>
       </c>
@@ -16724,7 +16725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>2.1233605526962398</v>
       </c>
@@ -16753,7 +16754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>2.1233605526962398</v>
       </c>
@@ -16782,7 +16783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>2.1576075670543902</v>
       </c>
@@ -16811,7 +16812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>1.78068834459961</v>
       </c>
@@ -16840,7 +16841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>1.95033275186496</v>
       </c>
@@ -16869,7 +16870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>1.7160068621848601</v>
       </c>
@@ -16898,7 +16899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>1.77535428465627</v>
       </c>
@@ -16927,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>1.6870813093472099</v>
       </c>
@@ -16956,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>1.59999419321736</v>
       </c>
@@ -16985,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>1.95814970635881</v>
       </c>
@@ -17014,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>1.56049019583267</v>
       </c>
@@ -17043,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>2.1836548288634998</v>
       </c>
@@ -17072,7 +17073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>2.19899403725988</v>
       </c>
@@ -17101,7 +17102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>1.9193757443089099</v>
       </c>
@@ -17130,7 +17131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>2.0077205021801499</v>
       </c>
@@ -17159,7 +17160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>1.96010883546646</v>
       </c>
@@ -17188,7 +17189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>1.9386657912365199</v>
       </c>
@@ -17217,7 +17218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>1.8983783087408601</v>
       </c>
@@ -17246,7 +17247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>1.8294218719978601</v>
       </c>
@@ -17275,7 +17276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>2.0482791467233801</v>
       </c>
@@ -17304,7 +17305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>2.0441866822585602</v>
       </c>
@@ -17333,7 +17334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>1.57932888424944</v>
       </c>
@@ -17362,7 +17363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>2.1924069407332198</v>
       </c>
@@ -17391,7 +17392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>1.90980281784711</v>
       </c>
@@ -17420,7 +17421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>1.78961408207101</v>
       </c>
@@ -17449,7 +17450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>2.1340039417586598</v>
       </c>
@@ -17478,7 +17479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>1.95228406010834</v>
       </c>
@@ -17507,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>1.9309266167394601</v>
       </c>
@@ -17536,7 +17537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>1.9270686227859399</v>
       </c>
@@ -17565,7 +17566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>1.9483833939545001</v>
       </c>
@@ -17594,7 +17595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>1.8112188202285699</v>
       </c>
@@ -17623,7 +17624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>1.99371553324308</v>
       </c>
@@ -17652,7 +17653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>2.00370907394118</v>
       </c>
@@ -17681,7 +17682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>1.96010883546646</v>
       </c>
@@ -17710,7 +17711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>2.0564886714136299</v>
       </c>
@@ -17739,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>1.79678687442027</v>
       </c>
@@ -17768,7 +17769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>2.3186845023275202</v>
       </c>
@@ -17797,7 +17798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>1.4918246976412699</v>
       </c>
@@ -17826,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>1.7074482422542101</v>
       </c>
@@ -17855,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>1.5174025129350801</v>
       </c>
@@ -17884,7 +17885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>1.4290358698538801</v>
       </c>
@@ -17913,7 +17914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>2.1022327621864498</v>
       </c>
@@ -17942,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>1.5714519485776499</v>
       </c>
@@ -17971,7 +17972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>1.9659979912897301</v>
       </c>
@@ -18000,7 +18001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>2.0380633118599101</v>
       </c>
@@ -18029,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>1.7023335733667799</v>
       </c>
@@ -18058,7 +18059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>1.75768921436982</v>
       </c>
@@ -18087,7 +18088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>2.1814722654982002</v>
       </c>
@@ -18116,7 +18117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>1.6290548499725701</v>
       </c>
@@ -18145,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>2.0959355144943599</v>
       </c>
@@ -18174,7 +18175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>1.9059870292719201</v>
       </c>
@@ -18203,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>1.82394183055406</v>
       </c>
@@ -18232,7 +18233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>1.8645131995195201</v>
       </c>
@@ -18261,7 +18262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>1.9002776365552301</v>
       </c>
@@ -18290,7 +18291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>1.88702214145874</v>
       </c>
@@ -18319,7 +18320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>1.72116261253012</v>
       </c>
@@ -18348,7 +18349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>1.8719861883312401</v>
       </c>
@@ -18377,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>2.16409010870612</v>
       </c>
@@ -18406,7 +18407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>1.76473405150846</v>
       </c>
@@ -18435,7 +18436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>1.6241750088442299</v>
       </c>
@@ -18464,7 +18465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>2.3773822799620699</v>
       </c>
@@ -18493,7 +18494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>1.60480138297626</v>
       </c>
@@ -18522,7 +18523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>1.97782943808353</v>
       </c>
@@ -18551,7 +18552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>2.2750453812359899</v>
       </c>
@@ -18580,7 +18581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>2.1170000166126699</v>
       </c>
@@ -18609,7 +18610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>2.22109429475144</v>
       </c>
@@ -18638,7 +18639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>1.8330843770260501</v>
       </c>
@@ -18667,7 +18668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>1.7436837970197401</v>
       </c>
@@ -18696,7 +18697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>1.8889101074258501</v>
       </c>
@@ -18725,7 +18726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>1.8832518687053299</v>
       </c>
@@ -18754,7 +18755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>1.98575659958933</v>
       </c>
@@ -18783,7 +18784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>1.73846058436507</v>
       </c>
@@ -18812,7 +18813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>1.9270686227859399</v>
       </c>
@@ -18841,7 +18842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>2.15114444388532</v>
       </c>
@@ -18870,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>1.83491837825085</v>
       </c>
@@ -18899,7 +18900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>1.82759336453197</v>
       </c>
@@ -18928,7 +18929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>1.86264961826593</v>
       </c>
@@ -18957,7 +18958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>1.77357981775294</v>
       </c>
@@ -18986,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>2.0441866822585602</v>
       </c>
@@ -19015,7 +19016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>1.8112188202285699</v>
       </c>
@@ -19044,7 +19045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>1.6686251101396701</v>
       </c>
@@ -19073,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>2.0137527074704802</v>
       </c>
@@ -19102,7 +19103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>2.20560092474773</v>
       </c>
@@ -19131,7 +19132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>2.3233265117943001</v>
       </c>
@@ -19160,7 +19161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>2.0813151967047498</v>
       </c>
@@ -19189,7 +19190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>1.83491837825085</v>
       </c>
@@ -19218,7 +19219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>1.73846058436507</v>
       </c>
@@ -19247,7 +19248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>1.7401999144695399</v>
       </c>
@@ -19276,7 +19277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>1.9021788646473901</v>
       </c>
@@ -19305,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>2.2144409968040701</v>
       </c>
@@ -19334,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>1.96010883546646</v>
       </c>
@@ -19363,7 +19364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>1.98575659958933</v>
       </c>
@@ -19392,7 +19393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>1.88702214145874</v>
       </c>
@@ -19421,7 +19422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>1.6569855204608499</v>
       </c>
@@ -19450,7 +19451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>1.95814970635881</v>
       </c>
@@ -19479,7 +19480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>2.2727714729983699</v>
       </c>
@@ -19508,7 +19509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>1.8832518687053299</v>
       </c>
@@ -19537,7 +19538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>2.1233605526962398</v>
       </c>
@@ -19566,7 +19567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>2.1489943746552198</v>
       </c>
@@ -19595,7 +19596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>2.0709345938546</v>
       </c>
@@ -19624,7 +19625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>1.94643598442759</v>
       </c>
@@ -19653,7 +19654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>1.59839499875464</v>
       </c>
@@ -19682,7 +19683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>1.84227275070293</v>
       </c>
@@ -19711,7 +19712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>1.6753129773975901</v>
       </c>
@@ -19740,7 +19741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>2.01778424307718</v>
       </c>
@@ -19769,7 +19770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>2.2956132060461298</v>
       </c>
@@ -19798,7 +19799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>2.0875685175862002</v>
       </c>
@@ -19827,7 +19828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>2.0544332106438898</v>
       </c>
@@ -19856,7 +19857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>1.9117135758847501</v>
       </c>
@@ -19885,7 +19886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>1.76473405150846</v>
       </c>
@@ -19914,7 +19915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>1.94254700273675</v>
       </c>
@@ -19943,7 +19944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>1.697234225493</v>
       </c>
@@ -19972,7 +19973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>1.7524240484244999</v>
       </c>
@@ -20001,7 +20002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>2.0959355144943599</v>
       </c>
@@ -20030,7 +20031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>2.0709345938546</v>
       </c>
@@ -20059,7 +20060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>2.0667968637762102</v>
       </c>
@@ -20088,7 +20089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>1.9738777322304499</v>
       </c>
@@ -20117,7 +20118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>1.8719861883312401</v>
       </c>
@@ -20146,7 +20147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>1.7629701995299301</v>
       </c>
@@ -20175,7 +20176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>1.84227275070293</v>
       </c>
@@ -20204,7 +20205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>1.9174573279326601</v>
       </c>
@@ -20233,7 +20234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>2.1924069407332198</v>
       </c>
@@ -20262,7 +20263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>1.7160068621848601</v>
       </c>
@@ -20291,7 +20292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>2.1064414349807299</v>
       </c>
@@ -20320,7 +20321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>2.3349722343978701</v>
       </c>
@@ -20349,7 +20350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>1.61123344405424</v>
       </c>
@@ -20378,7 +20379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>2.2933187402641799</v>
       </c>
@@ -20407,7 +20408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>1.9738777322304499</v>
       </c>
@@ -20436,7 +20437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>1.57932888424944</v>
       </c>
@@ -20465,7 +20466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>2.0606057644771498</v>
       </c>
@@ -20494,7 +20495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>1.88702214145874</v>
       </c>
@@ -20523,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>1.8166606353305501</v>
       </c>
@@ -20552,7 +20553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>1.7789085463024801</v>
       </c>
@@ -20581,7 +20582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>1.8312522088857699</v>
       </c>
@@ -20610,7 +20611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>1.9837718355371601</v>
       </c>
@@ -20639,7 +20640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>1.7436837970197401</v>
       </c>
@@ -20668,7 +20669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>2.1233605526962398</v>
       </c>
@@ -20697,7 +20698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>2.1233605526962398</v>
       </c>
@@ -20726,7 +20727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>2.1576075670543902</v>
       </c>
@@ -20755,7 +20756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>1.78068834459961</v>
       </c>
@@ -20784,7 +20785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>1.95033275186496</v>
       </c>
@@ -20813,7 +20814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>1.7160068621848601</v>
       </c>
@@ -20842,7 +20843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>1.77535428465627</v>
       </c>
@@ -20871,7 +20872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>1.6870813093472099</v>
       </c>
@@ -20900,7 +20901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>1.59999419321736</v>
       </c>
@@ -20929,7 +20930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>1.95814970635881</v>
       </c>
@@ -20958,7 +20959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>1.56049019583267</v>
       </c>
@@ -20987,7 +20988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>2.1836548288634998</v>
       </c>
@@ -21016,7 +21017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>2.19899403725988</v>
       </c>
@@ -21045,7 +21046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>1.9193757443089099</v>
       </c>
@@ -21074,7 +21075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>2.0077205021801499</v>
       </c>
@@ -21103,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>1.96010883546646</v>
       </c>
@@ -21132,7 +21133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>1.9386657912365199</v>
       </c>
@@ -21161,7 +21162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>1.8983783087408601</v>
       </c>
@@ -21190,7 +21191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>1.8294218719978601</v>
       </c>
@@ -21219,7 +21220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>2.0482791467233801</v>
       </c>
@@ -21248,7 +21249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>2.0441866822585602</v>
       </c>
@@ -21277,7 +21278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>1.57932888424944</v>
       </c>
@@ -21306,7 +21307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>2.1924069407332198</v>
       </c>
@@ -21335,7 +21336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>1.90980281784711</v>
       </c>
@@ -21364,7 +21365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>1.78961408207101</v>
       </c>
@@ -21393,7 +21394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>2.1340039417586598</v>
       </c>
@@ -21422,7 +21423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>1.95228406010834</v>
       </c>
@@ -21451,7 +21452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>1.9309266167394601</v>
       </c>
@@ -21480,7 +21481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>1.9270686227859399</v>
       </c>
@@ -21509,7 +21510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>1.9483833939545001</v>
       </c>
@@ -21538,7 +21539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>1.8112188202285699</v>
       </c>
@@ -21567,7 +21568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>1.99371553324308</v>
       </c>
@@ -21596,7 +21597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>2.00370907394118</v>
       </c>
@@ -21625,7 +21626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>1.96010883546646</v>
       </c>
@@ -21654,7 +21655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>2.0564886714136299</v>
       </c>
@@ -21683,7 +21684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>1.79678687442027</v>
       </c>
@@ -21712,7 +21713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>2.3186845023275202</v>
       </c>
@@ -21741,7 +21742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>1.4918246976412699</v>
       </c>
@@ -21770,7 +21771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>1.7074482422542101</v>
       </c>
@@ -21799,7 +21800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>1.5174025129350801</v>
       </c>
@@ -21828,7 +21829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>1.4290358698538801</v>
       </c>
@@ -21857,7 +21858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>2.1022327621864498</v>
       </c>
@@ -21886,7 +21887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A739">
         <v>1.5714519485776499</v>
       </c>
@@ -21915,7 +21916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A740">
         <v>1.9659979912897301</v>
       </c>
@@ -21944,7 +21945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>2.0380633118599101</v>
       </c>
@@ -21973,7 +21974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>1.7023335733667799</v>
       </c>
@@ -22002,7 +22003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>1.75768921436982</v>
       </c>
@@ -22031,7 +22032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>2.1814722654982002</v>
       </c>
@@ -22060,7 +22061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>1.6290548499725701</v>
       </c>
@@ -22089,7 +22090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>2.0959355144943599</v>
       </c>
@@ -22118,7 +22119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>1.9059870292719201</v>
       </c>
@@ -22147,7 +22148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>1.82394183055406</v>
       </c>
@@ -22176,7 +22177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>1.8645131995195201</v>
       </c>
@@ -22205,7 +22206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>1.9002776365552301</v>
       </c>
@@ -22234,7 +22235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>1.88702214145874</v>
       </c>
@@ -22263,7 +22264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>1.72116261253012</v>
       </c>
@@ -22292,7 +22293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>1.8719861883312401</v>
       </c>
@@ -22321,7 +22322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>2.16409010870612</v>
       </c>
@@ -22350,7 +22351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>1.76473405150846</v>
       </c>
@@ -22379,7 +22380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>1.6241750088442299</v>
       </c>
@@ -22408,7 +22409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A757">
         <v>2.3773822799620699</v>
       </c>
@@ -22437,7 +22438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>1.60480138297626</v>
       </c>
@@ -22466,7 +22467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>1.97782943808353</v>
       </c>
@@ -22495,7 +22496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>2.2750453812359899</v>
       </c>
@@ -22524,7 +22525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>2.1170000166126699</v>
       </c>
@@ -22553,7 +22554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>2.22109429475144</v>
       </c>
@@ -22582,7 +22583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A763">
         <v>1.8330843770260501</v>
       </c>
@@ -22611,7 +22612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>1.7436837970197401</v>
       </c>
@@ -22640,7 +22641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>1.8889101074258501</v>
       </c>
@@ -22669,7 +22670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>1.8832518687053299</v>
       </c>
@@ -22698,7 +22699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>1.98575659958933</v>
       </c>
@@ -22727,7 +22728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>1.73846058436507</v>
       </c>
@@ -22756,7 +22757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A769">
         <v>1.9270686227859399</v>
       </c>
@@ -22785,7 +22786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A770">
         <v>2.15114444388532</v>
       </c>
@@ -22814,7 +22815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A771">
         <v>1.83491837825085</v>
       </c>
@@ -22843,7 +22844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A772">
         <v>1.82759336453197</v>
       </c>
@@ -22872,7 +22873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A773">
         <v>1.86264961826593</v>
       </c>
@@ -22901,7 +22902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A774">
         <v>1.77357981775294</v>
       </c>
@@ -22930,7 +22931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A775">
         <v>2.0441866822585602</v>
       </c>
@@ -22959,7 +22960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A776">
         <v>1.8112188202285699</v>
       </c>
@@ -22988,7 +22989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A777">
         <v>1.6686251101396701</v>
       </c>
@@ -23017,7 +23018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A778">
         <v>2.0137527074704802</v>
       </c>
@@ -23046,7 +23047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A779">
         <v>2.20560092474773</v>
       </c>
@@ -23075,7 +23076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A780">
         <v>2.3233265117943001</v>
       </c>
@@ -23104,7 +23105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A781">
         <v>2.0813151967047498</v>
       </c>
@@ -23133,7 +23134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A782">
         <v>1.83491837825085</v>
       </c>
@@ -23162,7 +23163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A783">
         <v>1.73846058436507</v>
       </c>
@@ -23191,7 +23192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A784">
         <v>1.7401999144695399</v>
       </c>
@@ -23220,7 +23221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A785">
         <v>1.9021788646473901</v>
       </c>
@@ -23249,7 +23250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A786">
         <v>2.2144409968040701</v>
       </c>
@@ -23278,7 +23279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A787">
         <v>1.96010883546646</v>
       </c>
@@ -23307,7 +23308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A788">
         <v>1.98575659958933</v>
       </c>
@@ -23336,7 +23337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A789">
         <v>1.88702214145874</v>
       </c>
@@ -23365,7 +23366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A790">
         <v>1.6569855204608499</v>
       </c>
@@ -23394,7 +23395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A791">
         <v>1.95814970635881</v>
       </c>
@@ -23423,7 +23424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A792">
         <v>2.2727714729983699</v>
       </c>
@@ -23452,7 +23453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A793">
         <v>1.8832518687053299</v>
       </c>
@@ -23481,7 +23482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A794">
         <v>2.1233605526962398</v>
       </c>
@@ -23510,7 +23511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A795">
         <v>2.1489943746552198</v>
       </c>
@@ -23539,7 +23540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A796">
         <v>2.0709345938546</v>
       </c>
@@ -23568,7 +23569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A797">
         <v>1.94643598442759</v>
       </c>
@@ -23597,7 +23598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A798">
         <v>1.59839499875464</v>
       </c>
@@ -23626,7 +23627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A799">
         <v>1.84227275070293</v>
       </c>
@@ -23655,7 +23656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A800">
         <v>1.6753129773975901</v>
       </c>
@@ -23684,7 +23685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A801">
         <v>2.01778424307718</v>
       </c>
@@ -23713,7 +23714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A802">
         <v>2.2956132060461298</v>
       </c>
@@ -23742,7 +23743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A803">
         <v>2.0875685175862002</v>
       </c>
@@ -23771,7 +23772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A804">
         <v>2.0544332106438898</v>
       </c>
@@ -23800,7 +23801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A805">
         <v>1.9117135758847501</v>
       </c>
@@ -23829,7 +23830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A806">
         <v>1.76473405150846</v>
       </c>
@@ -23858,7 +23859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A807">
         <v>1.94254700273675</v>
       </c>
@@ -23887,7 +23888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A808">
         <v>1.697234225493</v>
       </c>
@@ -23916,7 +23917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A809">
         <v>1.7524240484244999</v>
       </c>
@@ -23945,7 +23946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A810">
         <v>2.0959355144943599</v>
       </c>
@@ -23974,7 +23975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A811">
         <v>2.0709345938546</v>
       </c>
@@ -24003,7 +24004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A812">
         <v>2.0667968637762102</v>
       </c>
@@ -24032,7 +24033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A813">
         <v>1.9738777322304499</v>
       </c>
@@ -24061,7 +24062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A814">
         <v>1.8719861883312401</v>
       </c>
@@ -24090,7 +24091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A815">
         <v>1.7629701995299301</v>
       </c>
@@ -24119,7 +24120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A816">
         <v>1.84227275070293</v>
       </c>
@@ -24148,7 +24149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A817">
         <v>1.9174573279326601</v>
       </c>
